--- a/1-Situacioni/regjistri/18-Koordinatat-e-ndërtesës743-0-Djellza-leg.xlsx
+++ b/1-Situacioni/regjistri/18-Koordinatat-e-ndërtesës743-0-Djellza-leg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Ferizaj\Ingjinierike\565-6-Shefkia1\1-Situacioni\regjistri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Ferizaj\Ingjinierike\743-0-Djellza-leg\1-Situacioni\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$36</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="52">
   <si>
     <t>Nr</t>
   </si>
@@ -79,120 +79,9 @@
     <t>DSC</t>
   </si>
   <si>
-    <t>Asfallt</t>
-  </si>
-  <si>
-    <t>C2-1</t>
-  </si>
-  <si>
-    <t>CO1</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>E1-1</t>
-  </si>
-  <si>
-    <t>K1-1</t>
-  </si>
-  <si>
-    <t>K1-2</t>
-  </si>
-  <si>
-    <t>K2-1</t>
-  </si>
-  <si>
-    <t>K5-1</t>
-  </si>
-  <si>
-    <t>KYQJE-UJI</t>
-  </si>
-  <si>
-    <t>M1-1</t>
-  </si>
-  <si>
-    <t>M1-2</t>
-  </si>
-  <si>
-    <t>M1-3</t>
-  </si>
-  <si>
-    <t>M1-4</t>
-  </si>
-  <si>
-    <t>M2-1</t>
-  </si>
-  <si>
-    <t>M2-2</t>
-  </si>
-  <si>
-    <t>O2-1</t>
-  </si>
-  <si>
-    <t>O2-2</t>
-  </si>
-  <si>
-    <t>O2-3</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>Shenj</t>
-  </si>
-  <si>
-    <t>Shtyll</t>
-  </si>
-  <si>
     <t>STREHA</t>
   </si>
   <si>
-    <t>Tertuar</t>
-  </si>
-  <si>
-    <t>TK1-1</t>
-  </si>
-  <si>
-    <t>TK1-10</t>
-  </si>
-  <si>
-    <t>TK1-11</t>
-  </si>
-  <si>
-    <t>TK1-3</t>
-  </si>
-  <si>
-    <t>TK1-4</t>
-  </si>
-  <si>
-    <t>TK1-5</t>
-  </si>
-  <si>
-    <t>TK1-7</t>
-  </si>
-  <si>
-    <t>TK1-8</t>
-  </si>
-  <si>
-    <t>TK2-1</t>
-  </si>
-  <si>
-    <t>TK2-2</t>
-  </si>
-  <si>
-    <t>TK2-3</t>
-  </si>
-  <si>
-    <t>TK2-4</t>
-  </si>
-  <si>
     <t>TK2-5</t>
   </si>
   <si>
@@ -269,6 +158,36 @@
   </si>
   <si>
     <t>Ujembledhes</t>
+  </si>
+  <si>
+    <t>PERDHESA</t>
+  </si>
+  <si>
+    <t>PERDHESA-TERAS</t>
+  </si>
+  <si>
+    <t>BUNAR</t>
+  </si>
+  <si>
+    <t>FS1</t>
+  </si>
+  <si>
+    <t>KULMI</t>
+  </si>
+  <si>
+    <t>KYQJE-UJSJELLES</t>
+  </si>
+  <si>
+    <t>PP1</t>
+  </si>
+  <si>
+    <t>PP2</t>
+  </si>
+  <si>
+    <t>PUSET-FEKAL</t>
+  </si>
+  <si>
+    <t>SHTYLL-ELEKTRIKE</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1049,7 @@
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1167,6 +1086,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1246,24 +1183,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1625,19 +1546,16 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>00</a:t>
+            <a:t>00743-5</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>565-6</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1400" b="1">
@@ -2027,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:I18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,112 +1962,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -2177,16 +2095,16 @@
     </row>
     <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C15" s="9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D15" s="10">
-        <v>7510843.9336000001</v>
+        <v>7511661.5650000004</v>
       </c>
       <c r="E15" s="10">
-        <v>4693754.3136</v>
+        <v>4691962.8320000004</v>
       </c>
       <c r="F15" s="10">
-        <v>580.96799999999996</v>
+        <v>617.23900000000003</v>
       </c>
       <c r="G15" s="7">
         <v>40</v>
@@ -2200,16 +2118,16 @@
     </row>
     <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C16" s="9">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D16" s="10">
-        <v>7510835.4665000001</v>
+        <v>7511669.1579999998</v>
       </c>
       <c r="E16" s="10">
-        <v>4693745.7829</v>
+        <v>4691965.7479999997</v>
       </c>
       <c r="F16" s="10">
-        <v>580.96799999999996</v>
+        <v>617.60699999999997</v>
       </c>
       <c r="G16" s="7">
         <v>40</v>
@@ -2223,16 +2141,16 @@
     </row>
     <row r="17" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C17" s="9">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D17" s="10">
-        <v>7510831.7971999999</v>
+        <v>7511673.4440000001</v>
       </c>
       <c r="E17" s="10">
-        <v>4693766.6201999998</v>
+        <v>4691965.1030000001</v>
       </c>
       <c r="F17" s="10">
-        <v>580.96799999999996</v>
+        <v>617.10799999999995</v>
       </c>
       <c r="G17" s="7">
         <v>40</v>
@@ -2244,28 +2162,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="11">
-        <v>56</v>
-      </c>
-      <c r="D18" s="12">
-        <v>7510823.2538000001</v>
-      </c>
-      <c r="E18" s="12">
-        <v>4693758.1205000002</v>
-      </c>
-      <c r="F18" s="12">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="C18" s="9">
+        <v>10</v>
+      </c>
+      <c r="D18" s="10">
+        <v>7511670.0999999996</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4691972.9309999999</v>
+      </c>
+      <c r="F18" s="10">
+        <v>622.70500000000004</v>
+      </c>
+      <c r="G18" s="7">
         <v>40</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J18" s="4"/>
@@ -2274,52 +2192,108 @@
     <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="C19" s="9">
+        <v>302</v>
+      </c>
+      <c r="D19" s="10">
+        <v>7511674.4348999998</v>
+      </c>
+      <c r="E19" s="10">
+        <v>4691972.3898999998</v>
+      </c>
+      <c r="F19" s="10">
+        <v>617.60699999999997</v>
+      </c>
+      <c r="G19" s="7">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="C20" s="9">
+        <v>303</v>
+      </c>
+      <c r="D20" s="10">
+        <v>7511670.1326000001</v>
+      </c>
+      <c r="E20" s="10">
+        <v>4691973.0373</v>
+      </c>
+      <c r="F20" s="10">
+        <v>617.60699999999997</v>
+      </c>
+      <c r="G20" s="7">
+        <v>40</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="10">
+        <v>7511668.6059999997</v>
+      </c>
+      <c r="E21" s="10">
+        <v>4691961.7359999996</v>
+      </c>
+      <c r="F21" s="10">
+        <v>617.13699999999994</v>
+      </c>
+      <c r="G21" s="7">
+        <v>40</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="C22" s="11">
+        <v>3</v>
+      </c>
+      <c r="D22" s="12">
+        <v>7511663.0590000004</v>
+      </c>
+      <c r="E22" s="12">
+        <v>4691974.0269999998</v>
+      </c>
+      <c r="F22" s="12">
+        <v>617.13699999999994</v>
+      </c>
+      <c r="G22" s="13">
+        <v>40</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
@@ -2446,34 +2420,34 @@
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="26" t="s">
+      <c r="F35" s="42"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="38"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="50"/>
     </row>
     <row r="36" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35">
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47">
         <v>152</v>
       </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="40"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="52"/>
     </row>
     <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K37" s="4"/>
@@ -2503,1262 +2477,1629 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E7:U34"/>
+  <dimension ref="E7:AC42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U34" sqref="E8:U34"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.85546875" customWidth="1"/>
     <col min="12" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2.7109375" customWidth="1"/>
     <col min="18" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="52" t="s">
+    <row r="7" spans="5:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="5:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="52" t="s">
+      <c r="K8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="50" t="s">
+      <c r="L8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="50" t="s">
+      <c r="M8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="50" t="s">
+      <c r="N8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="49" t="s">
+      <c r="O8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="52" t="s">
+      <c r="Q8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="R8" s="50" t="s">
+      <c r="R8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="S8" s="50" t="s">
+      <c r="S8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="T8" s="50" t="s">
+      <c r="T8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="49" t="s">
+      <c r="U8" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E9" s="43">
+    <row r="9" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E9" s="17">
+        <v>100</v>
+      </c>
+      <c r="F9" s="16">
+        <v>7511671.5851999996</v>
+      </c>
+      <c r="G9" s="16">
+        <v>4691921.9764999999</v>
+      </c>
+      <c r="H9" s="16">
+        <v>616.96</v>
+      </c>
+      <c r="I9" s="20">
+        <v>100</v>
+      </c>
+      <c r="K9" s="17">
+        <v>1</v>
+      </c>
+      <c r="L9" s="16">
+        <v>7511661.5650000004</v>
+      </c>
+      <c r="M9" s="16">
+        <v>4691962.8320000004</v>
+      </c>
+      <c r="N9" s="16">
+        <v>617.23900000000003</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>41</v>
+      </c>
+      <c r="R9" s="16">
+        <v>7510832.7000000002</v>
+      </c>
+      <c r="S9" s="16">
+        <v>4693767.3870000001</v>
+      </c>
+      <c r="T9" s="16">
+        <v>587.18700000000001</v>
+      </c>
+      <c r="U9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y9">
+        <v>100</v>
+      </c>
+      <c r="Z9">
+        <v>7511671.5851999996</v>
+      </c>
+      <c r="AA9">
+        <v>4691921.9764999999</v>
+      </c>
+      <c r="AB9">
+        <v>616.96</v>
+      </c>
+      <c r="AC9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E10" s="25">
+        <v>101</v>
+      </c>
+      <c r="F10" s="19">
+        <v>7511672.4479999999</v>
+      </c>
+      <c r="G10" s="19">
+        <v>4691927.1880000001</v>
+      </c>
+      <c r="H10" s="19">
+        <v>616.99</v>
+      </c>
+      <c r="I10" s="15">
+        <v>101</v>
+      </c>
+      <c r="K10" s="25">
+        <v>4</v>
+      </c>
+      <c r="L10" s="19">
+        <v>7511669.1579999998</v>
+      </c>
+      <c r="M10" s="19">
+        <v>4691965.7479999997</v>
+      </c>
+      <c r="N10" s="19">
+        <v>617.60699999999997</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>65</v>
+      </c>
+      <c r="R10" s="19">
+        <v>7510834.4950000001</v>
+      </c>
+      <c r="S10" s="19">
+        <v>4693744.9019999998</v>
+      </c>
+      <c r="T10" s="19">
+        <v>587.375</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y10">
+        <v>101</v>
+      </c>
+      <c r="Z10">
+        <v>7511672.4479999999</v>
+      </c>
+      <c r="AA10">
+        <v>4691927.1880000001</v>
+      </c>
+      <c r="AB10">
+        <v>616.99</v>
+      </c>
+      <c r="AC10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E11" s="25">
+        <v>102</v>
+      </c>
+      <c r="F11" s="19">
+        <v>7511655.1898999996</v>
+      </c>
+      <c r="G11" s="19">
+        <v>4691922.5625999998</v>
+      </c>
+      <c r="H11" s="19">
+        <v>616.96</v>
+      </c>
+      <c r="I11" s="15">
+        <v>102</v>
+      </c>
+      <c r="K11" s="25">
+        <v>5</v>
+      </c>
+      <c r="L11" s="19">
+        <v>7511673.4440000001</v>
+      </c>
+      <c r="M11" s="19">
+        <v>4691965.1030000001</v>
+      </c>
+      <c r="N11" s="19">
+        <v>617.10799999999995</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>66</v>
+      </c>
+      <c r="R11" s="19">
+        <v>7510822.3530000001</v>
+      </c>
+      <c r="S11" s="19">
+        <v>4693757.1469999999</v>
+      </c>
+      <c r="T11" s="19">
+        <v>588.27300000000002</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y11">
+        <v>102</v>
+      </c>
+      <c r="Z11">
+        <v>7511655.1898999996</v>
+      </c>
+      <c r="AA11">
+        <v>4691922.5625999998</v>
+      </c>
+      <c r="AB11">
+        <v>616.96</v>
+      </c>
+      <c r="AC11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E12" s="25">
+        <v>103</v>
+      </c>
+      <c r="F12" s="19">
+        <v>7511675.2560000001</v>
+      </c>
+      <c r="G12" s="19">
+        <v>4691951.1409999998</v>
+      </c>
+      <c r="H12" s="19">
+        <v>616.89099999999996</v>
+      </c>
+      <c r="I12" s="15">
+        <v>103</v>
+      </c>
+      <c r="K12" s="25">
+        <v>10</v>
+      </c>
+      <c r="L12" s="19">
+        <v>7511670.0999999996</v>
+      </c>
+      <c r="M12" s="19">
+        <v>4691972.9309999999</v>
+      </c>
+      <c r="N12" s="19">
+        <v>622.70500000000004</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>42</v>
+      </c>
+      <c r="R12" s="19">
+        <v>7510843.898</v>
+      </c>
+      <c r="S12" s="19">
+        <v>4693754.335</v>
+      </c>
+      <c r="T12" s="19">
+        <v>590.178</v>
+      </c>
+      <c r="U12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y12">
+        <v>103</v>
+      </c>
+      <c r="Z12">
+        <v>7511675.2560000001</v>
+      </c>
+      <c r="AA12">
+        <v>4691951.1409999998</v>
+      </c>
+      <c r="AB12">
+        <v>616.89099999999996</v>
+      </c>
+      <c r="AC12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E13" s="25">
+        <v>105</v>
+      </c>
+      <c r="F13" s="19">
+        <v>7511661.9308000002</v>
+      </c>
+      <c r="G13" s="19">
+        <v>4691974.6736000003</v>
+      </c>
+      <c r="H13" s="19">
+        <v>616.98699999999997</v>
+      </c>
+      <c r="I13" s="15">
+        <v>105</v>
+      </c>
+      <c r="K13" s="25">
+        <v>302</v>
+      </c>
+      <c r="L13" s="19">
+        <v>7511674.4348999998</v>
+      </c>
+      <c r="M13" s="19">
+        <v>4691972.3898999998</v>
+      </c>
+      <c r="N13" s="19">
+        <v>617.60699999999997</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>70</v>
+      </c>
+      <c r="R13" s="19">
+        <v>7510823.3039999995</v>
+      </c>
+      <c r="S13" s="19">
+        <v>4693758.0789999999</v>
+      </c>
+      <c r="T13" s="19">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y13">
+        <v>105</v>
+      </c>
+      <c r="Z13">
+        <v>7511661.9308000002</v>
+      </c>
+      <c r="AA13">
+        <v>4691974.6736000003</v>
+      </c>
+      <c r="AB13">
+        <v>616.98699999999997</v>
+      </c>
+      <c r="AC13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E14" s="25">
+        <v>106</v>
+      </c>
+      <c r="F14" s="19">
+        <v>7511676.6059999997</v>
+      </c>
+      <c r="G14" s="19">
+        <v>4691955.8969999999</v>
+      </c>
+      <c r="H14" s="19">
+        <v>616.89599999999996</v>
+      </c>
+      <c r="I14" s="15">
+        <v>106</v>
+      </c>
+      <c r="K14" s="25">
+        <v>303</v>
+      </c>
+      <c r="L14" s="19">
+        <v>7511670.1326000001</v>
+      </c>
+      <c r="M14" s="19">
+        <v>4691973.0373</v>
+      </c>
+      <c r="N14" s="19">
+        <v>617.60699999999997</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>71</v>
+      </c>
+      <c r="R14" s="19">
+        <v>7510822.4110000003</v>
+      </c>
+      <c r="S14" s="19">
+        <v>4693757.165</v>
+      </c>
+      <c r="T14" s="19">
+        <v>590.17399999999998</v>
+      </c>
+      <c r="U14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="42">
-        <v>7510856.2149999999</v>
-      </c>
-      <c r="G9" s="42">
-        <v>4693755.2929999996</v>
-      </c>
-      <c r="H9" s="42">
-        <v>580.50199999999995</v>
-      </c>
-      <c r="I9" s="46" t="s">
+      <c r="Y14">
+        <v>106</v>
+      </c>
+      <c r="Z14">
+        <v>7511676.6059999997</v>
+      </c>
+      <c r="AA14">
+        <v>4691955.8969999999</v>
+      </c>
+      <c r="AB14">
+        <v>616.89599999999996</v>
+      </c>
+      <c r="AC14">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E15" s="25">
+        <v>107</v>
+      </c>
+      <c r="F15" s="19">
+        <v>7511679.0199999996</v>
+      </c>
+      <c r="G15" s="19">
+        <v>4691970.983</v>
+      </c>
+      <c r="H15" s="19">
+        <v>616.92700000000002</v>
+      </c>
+      <c r="I15" s="15">
+        <v>107</v>
+      </c>
+      <c r="K15" s="25">
+        <v>2</v>
+      </c>
+      <c r="L15" s="19">
+        <v>7511668.6059999997</v>
+      </c>
+      <c r="M15" s="19">
+        <v>4691961.7359999996</v>
+      </c>
+      <c r="N15" s="19">
+        <v>617.13699999999994</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>72</v>
+      </c>
+      <c r="R15" s="19">
+        <v>7510822.4000000004</v>
+      </c>
+      <c r="S15" s="19">
+        <v>4693757.1540000001</v>
+      </c>
+      <c r="T15" s="19">
+        <v>591.33199999999999</v>
+      </c>
+      <c r="U15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y15">
+        <v>107</v>
+      </c>
+      <c r="Z15">
+        <v>7511679.0199999996</v>
+      </c>
+      <c r="AA15">
+        <v>4691970.983</v>
+      </c>
+      <c r="AB15">
+        <v>616.92700000000002</v>
+      </c>
+      <c r="AC15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E16" s="25">
+        <v>108</v>
+      </c>
+      <c r="F16" s="19">
+        <v>7511679.1717999997</v>
+      </c>
+      <c r="G16" s="19">
+        <v>4691972.3033999996</v>
+      </c>
+      <c r="H16" s="19">
+        <v>616.89200000000005</v>
+      </c>
+      <c r="I16" s="15">
+        <v>108</v>
+      </c>
+      <c r="K16" s="25">
+        <v>3</v>
+      </c>
+      <c r="L16" s="19">
+        <v>7511663.0590000004</v>
+      </c>
+      <c r="M16" s="19">
+        <v>4691974.0269999998</v>
+      </c>
+      <c r="N16" s="19">
+        <v>617.13699999999994</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>43</v>
+      </c>
+      <c r="R16" s="19">
+        <v>7510844.7580000004</v>
+      </c>
+      <c r="S16" s="19">
+        <v>4693755.1890000002</v>
+      </c>
+      <c r="T16" s="19">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="U16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y16">
+        <v>108</v>
+      </c>
+      <c r="Z16">
+        <v>7511679.1717999997</v>
+      </c>
+      <c r="AA16">
+        <v>4691972.3033999996</v>
+      </c>
+      <c r="AB16">
+        <v>616.89200000000005</v>
+      </c>
+      <c r="AC16">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E17" s="25">
+        <v>109</v>
+      </c>
+      <c r="F17" s="19">
+        <v>7511659.9869999997</v>
+      </c>
+      <c r="G17" s="19">
+        <v>4691957.7709999997</v>
+      </c>
+      <c r="H17" s="19">
+        <v>616.97400000000005</v>
+      </c>
+      <c r="I17" s="15">
+        <v>109</v>
+      </c>
+      <c r="K17" s="25">
+        <v>19</v>
+      </c>
+      <c r="L17" s="19">
+        <v>7511678.6239999998</v>
+      </c>
+      <c r="M17" s="19">
+        <v>4691954.75</v>
+      </c>
+      <c r="N17" s="19">
+        <v>616.91099999999994</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>44</v>
+      </c>
+      <c r="R17" s="19">
+        <v>7510844.7620000001</v>
+      </c>
+      <c r="S17" s="19">
+        <v>4693755.193</v>
+      </c>
+      <c r="T17" s="19">
+        <v>591.33799999999997</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y17">
+        <v>109</v>
+      </c>
+      <c r="Z17">
+        <v>7511659.9869999997</v>
+      </c>
+      <c r="AA17">
+        <v>4691957.7709999997</v>
+      </c>
+      <c r="AB17">
+        <v>616.97400000000005</v>
+      </c>
+      <c r="AC17">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E18" s="25">
+        <v>110</v>
+      </c>
+      <c r="F18" s="19">
+        <v>7511660.7000000002</v>
+      </c>
+      <c r="G18" s="19">
+        <v>4691962.8320000004</v>
+      </c>
+      <c r="H18" s="19">
+        <v>616.98800000000006</v>
+      </c>
+      <c r="I18" s="15">
+        <v>110</v>
+      </c>
+      <c r="K18" s="25">
+        <v>20</v>
+      </c>
+      <c r="L18" s="19">
+        <v>7511648.5360000003</v>
+      </c>
+      <c r="M18" s="19">
+        <v>4691958.102</v>
+      </c>
+      <c r="N18" s="19">
+        <v>616.971</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>45</v>
+      </c>
+      <c r="R18" s="19">
+        <v>7510831.8420000002</v>
+      </c>
+      <c r="S18" s="19">
+        <v>4693766.5580000002</v>
+      </c>
+      <c r="T18" s="19">
+        <v>593.30399999999997</v>
+      </c>
+      <c r="U18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y18">
+        <v>110</v>
+      </c>
+      <c r="Z18">
+        <v>7511660.7000000002</v>
+      </c>
+      <c r="AA18">
+        <v>4691962.8320000004</v>
+      </c>
+      <c r="AB18">
+        <v>616.98800000000006</v>
+      </c>
+      <c r="AC18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E19" s="25">
+        <v>111</v>
+      </c>
+      <c r="F19" s="19">
+        <v>7511659.4510000004</v>
+      </c>
+      <c r="G19" s="19">
+        <v>4691952.99</v>
+      </c>
+      <c r="H19" s="19">
+        <v>617.04399999999998</v>
+      </c>
+      <c r="I19" s="15">
+        <v>111</v>
+      </c>
+      <c r="K19" s="25">
+        <v>8</v>
+      </c>
+      <c r="L19" s="19">
+        <v>7511677.7860000003</v>
+      </c>
+      <c r="M19" s="19">
+        <v>4691951.9060000004</v>
+      </c>
+      <c r="N19" s="19">
+        <v>617.78800000000001</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="25">
+        <v>46</v>
+      </c>
+      <c r="R19" s="19">
+        <v>7510832.6900000004</v>
+      </c>
+      <c r="S19" s="19">
+        <v>4693767.4069999997</v>
+      </c>
+      <c r="T19" s="19">
+        <v>593.298</v>
+      </c>
+      <c r="U19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y19">
+        <v>111</v>
+      </c>
+      <c r="Z19">
+        <v>7511659.4510000004</v>
+      </c>
+      <c r="AA19">
+        <v>4691952.99</v>
+      </c>
+      <c r="AB19">
+        <v>617.04399999999998</v>
+      </c>
+      <c r="AC19">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E20" s="25">
+        <v>112</v>
+      </c>
+      <c r="F20" s="19">
+        <v>7511657.8550000004</v>
+      </c>
+      <c r="G20" s="19">
+        <v>4691938.5520000001</v>
+      </c>
+      <c r="H20" s="19">
+        <v>616.52599999999995</v>
+      </c>
+      <c r="I20" s="15">
+        <v>112</v>
+      </c>
+      <c r="K20" s="25">
+        <v>9</v>
+      </c>
+      <c r="L20" s="19">
+        <v>7511681.5670999996</v>
+      </c>
+      <c r="M20" s="19">
+        <v>4691966.0844999999</v>
+      </c>
+      <c r="N20" s="19">
+        <v>619.20799999999997</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>67</v>
+      </c>
+      <c r="R20" s="19">
+        <v>7510835.4249999998</v>
+      </c>
+      <c r="S20" s="19">
+        <v>4693745.824</v>
+      </c>
+      <c r="T20" s="19">
+        <v>590.16700000000003</v>
+      </c>
+      <c r="U20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y20">
+        <v>112</v>
+      </c>
+      <c r="Z20">
+        <v>7511657.8550000004</v>
+      </c>
+      <c r="AA20">
+        <v>4691938.5520000001</v>
+      </c>
+      <c r="AB20">
+        <v>616.52599999999995</v>
+      </c>
+      <c r="AC20">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E21" s="25">
+        <v>6</v>
+      </c>
+      <c r="F21" s="19">
+        <v>7511673.9029999999</v>
+      </c>
+      <c r="G21" s="19">
+        <v>4691963.7139999997</v>
+      </c>
+      <c r="H21" s="19">
+        <v>617.08399999999995</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="25">
+        <v>12</v>
+      </c>
+      <c r="L21" s="19">
+        <v>7511661.0020000003</v>
+      </c>
+      <c r="M21" s="19">
+        <v>4691962.4029999999</v>
+      </c>
+      <c r="N21" s="19">
+        <v>622.81200000000001</v>
+      </c>
+      <c r="O21" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="43">
+      <c r="Q21" s="25">
+        <v>68</v>
+      </c>
+      <c r="R21" s="19">
+        <v>7510834.5439999998</v>
+      </c>
+      <c r="S21" s="19">
+        <v>4693744.9340000004</v>
+      </c>
+      <c r="T21" s="19">
+        <v>590.14400000000001</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y21">
+        <v>6</v>
+      </c>
+      <c r="Z21">
+        <v>7511673.9029999999</v>
+      </c>
+      <c r="AA21">
+        <v>4691963.7139999997</v>
+      </c>
+      <c r="AB21">
+        <v>617.08399999999995</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E22" s="25">
+        <v>21</v>
+      </c>
+      <c r="F22" s="19">
+        <v>7511669.7800000003</v>
+      </c>
+      <c r="G22" s="19">
+        <v>4691956.1849999996</v>
+      </c>
+      <c r="H22" s="19">
+        <v>617.09299999999996</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="25">
+        <v>13</v>
+      </c>
+      <c r="L22" s="19">
+        <v>7511669.0539999995</v>
+      </c>
+      <c r="M22" s="19">
+        <v>4691961.0939999996</v>
+      </c>
+      <c r="N22" s="19">
+        <v>622.78200000000004</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>69</v>
+      </c>
+      <c r="R22" s="19">
+        <v>7510834.4929999998</v>
+      </c>
+      <c r="S22" s="19">
+        <v>4693745.0290000001</v>
+      </c>
+      <c r="T22" s="19">
+        <v>591.36199999999997</v>
+      </c>
+      <c r="U22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y22">
+        <v>21</v>
+      </c>
+      <c r="Z22">
+        <v>7511669.7800000003</v>
+      </c>
+      <c r="AA22">
+        <v>4691956.1849999996</v>
+      </c>
+      <c r="AB22">
+        <v>617.09299999999996</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E23" s="25">
         <v>17</v>
       </c>
-      <c r="L9" s="42">
-        <v>7510838.915</v>
-      </c>
-      <c r="M9" s="42">
-        <v>4693774.6979999999</v>
-      </c>
-      <c r="N9" s="42">
-        <v>580.52099999999996</v>
-      </c>
-      <c r="O9" s="46" t="s">
+      <c r="F23" s="19">
+        <v>7511665.7659999998</v>
+      </c>
+      <c r="G23" s="19">
+        <v>4691961.6500000004</v>
+      </c>
+      <c r="H23" s="19">
+        <v>625.62099999999998</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="25">
+        <v>14</v>
+      </c>
+      <c r="L23" s="19">
+        <v>7511669.9400000004</v>
+      </c>
+      <c r="M23" s="19">
+        <v>4691967.9740000004</v>
+      </c>
+      <c r="N23" s="19">
+        <v>622.78399999999999</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="25">
+        <v>47</v>
+      </c>
+      <c r="R23" s="19">
+        <v>7510843.8969999999</v>
+      </c>
+      <c r="S23" s="19">
+        <v>4693754.3430000003</v>
+      </c>
+      <c r="T23" s="19">
+        <v>593.25900000000001</v>
+      </c>
+      <c r="U23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y23">
+        <v>17</v>
+      </c>
+      <c r="Z23">
+        <v>7511665.7659999998</v>
+      </c>
+      <c r="AA23">
+        <v>4691961.6500000004</v>
+      </c>
+      <c r="AB23">
+        <v>625.62099999999998</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E24" s="25">
+        <v>18</v>
+      </c>
+      <c r="F24" s="19">
+        <v>7511653.0640000002</v>
+      </c>
+      <c r="G24" s="19">
+        <v>4691967.7220000001</v>
+      </c>
+      <c r="H24" s="19">
+        <v>625.62099999999998</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="25">
+        <v>15</v>
+      </c>
+      <c r="L24" s="19">
+        <v>7511670.6228999998</v>
+      </c>
+      <c r="M24" s="19">
+        <v>4691973.2766000004</v>
+      </c>
+      <c r="N24" s="19">
+        <v>622.81200000000001</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="25">
+        <v>76</v>
+      </c>
+      <c r="R24" s="19">
+        <v>7510823.3119999999</v>
+      </c>
+      <c r="S24" s="19">
+        <v>4693758.0619999999</v>
+      </c>
+      <c r="T24" s="19">
+        <v>593.27300000000002</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y24">
+        <v>18</v>
+      </c>
+      <c r="Z24">
+        <v>7511653.0640000002</v>
+      </c>
+      <c r="AA24">
+        <v>4691967.7220000001</v>
+      </c>
+      <c r="AB24">
+        <v>625.62099999999998</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="5:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="21">
+        <v>7</v>
+      </c>
+      <c r="F25" s="18">
+        <v>7511661.125</v>
+      </c>
+      <c r="G25" s="18">
+        <v>4691961.6129999999</v>
+      </c>
+      <c r="H25" s="18">
+        <v>617.17499999999995</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="21">
+        <v>16</v>
+      </c>
+      <c r="L25" s="18">
+        <v>7511662.5708999997</v>
+      </c>
+      <c r="M25" s="18">
+        <v>4691974.5855999999</v>
+      </c>
+      <c r="N25" s="18">
+        <v>622.81200000000001</v>
+      </c>
+      <c r="O25" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="25">
+        <v>77</v>
+      </c>
+      <c r="R25" s="19">
+        <v>7510822.3890000004</v>
+      </c>
+      <c r="S25" s="19">
+        <v>4693757.1330000004</v>
+      </c>
+      <c r="T25" s="19">
+        <v>593.26400000000001</v>
+      </c>
+      <c r="U25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y25">
+        <v>7</v>
+      </c>
+      <c r="Z25">
+        <v>7511661.125</v>
+      </c>
+      <c r="AA25">
+        <v>4691961.6129999999</v>
+      </c>
+      <c r="AB25">
+        <v>617.17499999999995</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="53"/>
+      <c r="Q26" s="25">
+        <v>78</v>
+      </c>
+      <c r="R26" s="19">
+        <v>7510822.3650000002</v>
+      </c>
+      <c r="S26" s="19">
+        <v>4693757.1229999997</v>
+      </c>
+      <c r="T26" s="19">
+        <v>594.428</v>
+      </c>
+      <c r="U26" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>7511661.5650000004</v>
+      </c>
+      <c r="AA26">
+        <v>4691962.8320000004</v>
+      </c>
+      <c r="AB26">
+        <v>617.23900000000003</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E27" s="53"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="53"/>
+      <c r="Q27" s="25">
+        <v>48</v>
+      </c>
+      <c r="R27" s="19">
+        <v>7510844.7369999997</v>
+      </c>
+      <c r="S27" s="19">
+        <v>4693755.2079999996</v>
+      </c>
+      <c r="T27" s="19">
+        <v>593.27200000000005</v>
+      </c>
+      <c r="U27" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y27">
+        <v>4</v>
+      </c>
+      <c r="Z27">
+        <v>7511669.1579999998</v>
+      </c>
+      <c r="AA27">
+        <v>4691965.7479999997</v>
+      </c>
+      <c r="AB27">
+        <v>617.60699999999997</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E28" s="53"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="53"/>
+      <c r="Q28" s="25">
+        <v>49</v>
+      </c>
+      <c r="R28" s="19">
+        <v>7510844.7620000001</v>
+      </c>
+      <c r="S28" s="19">
+        <v>4693755.2110000001</v>
+      </c>
+      <c r="T28" s="19">
+        <v>594.38800000000003</v>
+      </c>
+      <c r="U28" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y28">
+        <v>5</v>
+      </c>
+      <c r="Z28">
+        <v>7511673.4440000001</v>
+      </c>
+      <c r="AA28">
+        <v>4691965.1030000001</v>
+      </c>
+      <c r="AB28">
+        <v>617.10799999999995</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="53"/>
+      <c r="Q29" s="25">
+        <v>50</v>
+      </c>
+      <c r="R29" s="19">
+        <v>7510831.8420000002</v>
+      </c>
+      <c r="S29" s="19">
+        <v>4693766.5599999996</v>
+      </c>
+      <c r="T29" s="19">
+        <v>593.30600000000004</v>
+      </c>
+      <c r="U29" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y29">
+        <v>10</v>
+      </c>
+      <c r="Z29">
+        <v>7511670.0999999996</v>
+      </c>
+      <c r="AA29">
+        <v>4691972.9309999999</v>
+      </c>
+      <c r="AB29">
+        <v>622.70500000000004</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E30" s="53"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="53"/>
+      <c r="Q30" s="25">
+        <v>51</v>
+      </c>
+      <c r="R30" s="19">
+        <v>7510832.6960000005</v>
+      </c>
+      <c r="S30" s="19">
+        <v>4693767.4139999999</v>
+      </c>
+      <c r="T30" s="19">
+        <v>593.298</v>
+      </c>
+      <c r="U30" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Q9" s="43">
+      <c r="Y30">
+        <v>302</v>
+      </c>
+      <c r="Z30">
+        <v>7511674.4348999998</v>
+      </c>
+      <c r="AA30">
+        <v>4691972.3898999998</v>
+      </c>
+      <c r="AB30">
+        <v>617.60699999999997</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E31" s="53"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="53"/>
+      <c r="Q31" s="25">
+        <v>73</v>
+      </c>
+      <c r="R31" s="19">
+        <v>7510835.4249999998</v>
+      </c>
+      <c r="S31" s="19">
+        <v>4693745.824</v>
+      </c>
+      <c r="T31" s="19">
+        <v>593.25400000000002</v>
+      </c>
+      <c r="U31" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y31">
+        <v>303</v>
+      </c>
+      <c r="Z31">
+        <v>7511670.1326000001</v>
+      </c>
+      <c r="AA31">
+        <v>4691973.0373</v>
+      </c>
+      <c r="AB31">
+        <v>617.60699999999997</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="53"/>
+      <c r="Q32" s="25">
+        <v>74</v>
+      </c>
+      <c r="R32" s="19">
+        <v>7510834.5439999998</v>
+      </c>
+      <c r="S32" s="19">
+        <v>4693744.9400000004</v>
+      </c>
+      <c r="T32" s="19">
+        <v>593.24800000000005</v>
+      </c>
+      <c r="U32" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y32">
+        <v>2</v>
+      </c>
+      <c r="Z32">
+        <v>7511668.6059999997</v>
+      </c>
+      <c r="AA32">
+        <v>4691961.7359999996</v>
+      </c>
+      <c r="AB32">
+        <v>617.13699999999994</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="53"/>
+      <c r="Q33" s="25">
+        <v>75</v>
+      </c>
+      <c r="R33" s="19">
+        <v>7510834.4809999997</v>
+      </c>
+      <c r="S33" s="19">
+        <v>4693745.0439999998</v>
+      </c>
+      <c r="T33" s="19">
+        <v>594.46500000000003</v>
+      </c>
+      <c r="U33" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y33">
+        <v>3</v>
+      </c>
+      <c r="Z33">
+        <v>7511663.0590000004</v>
+      </c>
+      <c r="AA33">
+        <v>4691974.0269999998</v>
+      </c>
+      <c r="AB33">
+        <v>617.13699999999994</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="5:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q34" s="21">
+        <v>27</v>
+      </c>
+      <c r="R34" s="18">
+        <v>7510846.4699999997</v>
+      </c>
+      <c r="S34" s="18">
+        <v>4693774.4309999999</v>
+      </c>
+      <c r="T34" s="18">
+        <v>580.39499999999998</v>
+      </c>
+      <c r="U34" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="R9" s="42">
-        <v>7510832.7000000002</v>
-      </c>
-      <c r="S9" s="42">
-        <v>4693767.3870000001</v>
-      </c>
-      <c r="T9" s="42">
-        <v>587.18700000000001</v>
-      </c>
-      <c r="U9" s="46" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E10" s="51">
-        <v>26</v>
-      </c>
-      <c r="F10" s="45">
-        <v>7510850.9060000004</v>
-      </c>
-      <c r="G10" s="45">
-        <v>4693765.8650000002</v>
-      </c>
-      <c r="H10" s="45">
-        <v>580.45299999999997</v>
-      </c>
-      <c r="I10" s="41" t="s">
+      <c r="Y34">
+        <v>19</v>
+      </c>
+      <c r="Z34">
+        <v>7511678.6239999998</v>
+      </c>
+      <c r="AA34">
+        <v>4691954.75</v>
+      </c>
+      <c r="AB34">
+        <v>616.91099999999994</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="Y35">
+        <v>20</v>
+      </c>
+      <c r="Z35">
+        <v>7511648.5360000003</v>
+      </c>
+      <c r="AA35">
+        <v>4691958.102</v>
+      </c>
+      <c r="AB35">
+        <v>616.971</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="Y36">
+        <v>8</v>
+      </c>
+      <c r="Z36">
+        <v>7511677.7860000003</v>
+      </c>
+      <c r="AA36">
+        <v>4691951.9060000004</v>
+      </c>
+      <c r="AB36">
+        <v>617.78800000000001</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="Y37">
+        <v>9</v>
+      </c>
+      <c r="Z37">
+        <v>7511681.5670999996</v>
+      </c>
+      <c r="AA37">
+        <v>4691966.0844999999</v>
+      </c>
+      <c r="AB37">
+        <v>619.20799999999997</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="Y38">
+        <v>12</v>
+      </c>
+      <c r="Z38">
+        <v>7511661.0020000003</v>
+      </c>
+      <c r="AA38">
+        <v>4691962.4029999999</v>
+      </c>
+      <c r="AB38">
+        <v>622.81200000000001</v>
+      </c>
+      <c r="AC38" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="51">
+    </row>
+    <row r="39" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="Y39">
+        <v>13</v>
+      </c>
+      <c r="Z39">
+        <v>7511669.0539999995</v>
+      </c>
+      <c r="AA39">
+        <v>4691961.0939999996</v>
+      </c>
+      <c r="AB39">
+        <v>622.78200000000004</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="Y40">
         <v>14</v>
       </c>
-      <c r="L10" s="45">
-        <v>7510848.7010000004</v>
-      </c>
-      <c r="M10" s="45">
-        <v>4693764.6710000001</v>
-      </c>
-      <c r="N10" s="45">
-        <v>580.44100000000003</v>
-      </c>
-      <c r="O10" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" s="51">
-        <v>65</v>
-      </c>
-      <c r="R10" s="45">
-        <v>7510834.4950000001</v>
-      </c>
-      <c r="S10" s="45">
-        <v>4693744.9019999998</v>
-      </c>
-      <c r="T10" s="45">
-        <v>587.375</v>
-      </c>
-      <c r="U10" s="41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E11" s="51">
-        <v>29</v>
-      </c>
-      <c r="F11" s="45">
-        <v>7510843.0310000004</v>
-      </c>
-      <c r="G11" s="45">
-        <v>4693780.1500000004</v>
-      </c>
-      <c r="H11" s="45">
-        <v>580.28499999999997</v>
-      </c>
-      <c r="I11" s="41" t="s">
+      <c r="Z40">
+        <v>7511669.9400000004</v>
+      </c>
+      <c r="AA40">
+        <v>4691967.9740000004</v>
+      </c>
+      <c r="AB40">
+        <v>622.78399999999999</v>
+      </c>
+      <c r="AC40" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="51">
-        <v>296</v>
-      </c>
-      <c r="L11" s="45">
-        <v>7510832.5769999996</v>
-      </c>
-      <c r="M11" s="45">
-        <v>4693767.6793</v>
-      </c>
-      <c r="N11" s="45">
-        <v>598.59400000000005</v>
-      </c>
-      <c r="O11" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q11" s="51">
-        <v>66</v>
-      </c>
-      <c r="R11" s="45">
-        <v>7510822.3530000001</v>
-      </c>
-      <c r="S11" s="45">
-        <v>4693757.1469999999</v>
-      </c>
-      <c r="T11" s="45">
-        <v>588.27300000000002</v>
-      </c>
-      <c r="U11" s="41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E12" s="51">
-        <v>59</v>
-      </c>
-      <c r="F12" s="45">
-        <v>7510814.6770000001</v>
-      </c>
-      <c r="G12" s="45">
-        <v>4693718.9680000003</v>
-      </c>
-      <c r="H12" s="45">
-        <v>581.64</v>
-      </c>
-      <c r="I12" s="41" t="s">
+    </row>
+    <row r="41" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="Y41">
+        <v>15</v>
+      </c>
+      <c r="Z41">
+        <v>7511670.6228999998</v>
+      </c>
+      <c r="AA41">
+        <v>4691973.2766000004</v>
+      </c>
+      <c r="AB41">
+        <v>622.81200000000001</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="Y42">
         <v>16</v>
       </c>
-      <c r="K12" s="51">
-        <v>297</v>
-      </c>
-      <c r="L12" s="45">
-        <v>7510844.9981000004</v>
-      </c>
-      <c r="M12" s="45">
-        <v>4693755.2103000004</v>
-      </c>
-      <c r="N12" s="45">
-        <v>598.59400000000005</v>
-      </c>
-      <c r="O12" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q12" s="51">
-        <v>42</v>
-      </c>
-      <c r="R12" s="45">
-        <v>7510843.898</v>
-      </c>
-      <c r="S12" s="45">
-        <v>4693754.335</v>
-      </c>
-      <c r="T12" s="45">
-        <v>590.178</v>
-      </c>
-      <c r="U12" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E13" s="51">
-        <v>3</v>
-      </c>
-      <c r="F13" s="45">
-        <v>7510839.8039999995</v>
-      </c>
-      <c r="G13" s="45">
-        <v>4693780.8849999998</v>
-      </c>
-      <c r="H13" s="45">
-        <v>580.41899999999998</v>
-      </c>
-      <c r="I13" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="51">
-        <v>298</v>
-      </c>
-      <c r="L13" s="45">
-        <v>7510834.6544000003</v>
-      </c>
-      <c r="M13" s="45">
-        <v>4693744.9063999997</v>
-      </c>
-      <c r="N13" s="45">
-        <v>598.59400000000005</v>
-      </c>
-      <c r="O13" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q13" s="51">
-        <v>70</v>
-      </c>
-      <c r="R13" s="45">
-        <v>7510823.3039999995</v>
-      </c>
-      <c r="S13" s="45">
-        <v>4693758.0789999999</v>
-      </c>
-      <c r="T13" s="45">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="U13" s="41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E14" s="51">
-        <v>55</v>
-      </c>
-      <c r="F14" s="45">
-        <v>7510852.227</v>
-      </c>
-      <c r="G14" s="45">
-        <v>4693757.7929999996</v>
-      </c>
-      <c r="H14" s="45">
-        <v>580.50400000000002</v>
-      </c>
-      <c r="I14" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="51">
-        <v>299</v>
-      </c>
-      <c r="L14" s="45">
-        <v>7510822.2334000003</v>
-      </c>
-      <c r="M14" s="45">
-        <v>4693757.3755000001</v>
-      </c>
-      <c r="N14" s="45">
-        <v>598.59400000000005</v>
-      </c>
-      <c r="O14" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q14" s="51">
-        <v>71</v>
-      </c>
-      <c r="R14" s="45">
-        <v>7510822.4110000003</v>
-      </c>
-      <c r="S14" s="45">
-        <v>4693757.165</v>
-      </c>
-      <c r="T14" s="45">
-        <v>590.17399999999998</v>
-      </c>
-      <c r="U14" s="41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E15" s="51">
-        <v>57</v>
-      </c>
-      <c r="F15" s="45">
-        <v>7510817.4160000002</v>
-      </c>
-      <c r="G15" s="45">
-        <v>4693754.5769999996</v>
-      </c>
-      <c r="H15" s="45">
-        <v>581.05799999999999</v>
-      </c>
-      <c r="I15" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="51">
-        <v>327</v>
-      </c>
-      <c r="L15" s="45">
-        <v>7510933.0552000003</v>
-      </c>
-      <c r="M15" s="45">
-        <v>4693778.8828999996</v>
-      </c>
-      <c r="N15" s="45">
-        <v>665.279</v>
-      </c>
-      <c r="O15" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q15" s="51">
-        <v>72</v>
-      </c>
-      <c r="R15" s="45">
-        <v>7510822.4000000004</v>
-      </c>
-      <c r="S15" s="45">
-        <v>4693757.1540000001</v>
-      </c>
-      <c r="T15" s="45">
-        <v>591.33199999999999</v>
-      </c>
-      <c r="U15" s="41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E16" s="51">
-        <v>20</v>
-      </c>
-      <c r="F16" s="45">
-        <v>7510852.4390000002</v>
-      </c>
-      <c r="G16" s="45">
-        <v>4693756.551</v>
-      </c>
-      <c r="H16" s="45">
-        <v>580.61400000000003</v>
-      </c>
-      <c r="I16" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="51">
-        <v>22</v>
-      </c>
-      <c r="L16" s="45">
-        <v>7510856.2220000001</v>
-      </c>
-      <c r="M16" s="45">
-        <v>4693755.2879999997</v>
-      </c>
-      <c r="N16" s="45">
-        <v>580.56600000000003</v>
-      </c>
-      <c r="O16" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" s="51">
-        <v>43</v>
-      </c>
-      <c r="R16" s="45">
-        <v>7510844.7580000004</v>
-      </c>
-      <c r="S16" s="45">
-        <v>4693755.1890000002</v>
-      </c>
-      <c r="T16" s="45">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="U16" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E17" s="51">
-        <v>79</v>
-      </c>
-      <c r="F17" s="45">
-        <v>7510832.0049999999</v>
-      </c>
-      <c r="G17" s="45">
-        <v>4693747.3870000001</v>
-      </c>
-      <c r="H17" s="45">
-        <v>598.59400000000005</v>
-      </c>
-      <c r="I17" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="51">
-        <v>23</v>
-      </c>
-      <c r="L17" s="45">
-        <v>7510850.8899999997</v>
-      </c>
-      <c r="M17" s="45">
-        <v>4693752.8590000002</v>
-      </c>
-      <c r="N17" s="45">
-        <v>580.62599999999998</v>
-      </c>
-      <c r="O17" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q17" s="51">
-        <v>44</v>
-      </c>
-      <c r="R17" s="45">
-        <v>7510844.7620000001</v>
-      </c>
-      <c r="S17" s="45">
-        <v>4693755.193</v>
-      </c>
-      <c r="T17" s="45">
-        <v>591.33799999999997</v>
-      </c>
-      <c r="U17" s="41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E18" s="51">
-        <v>28</v>
-      </c>
-      <c r="F18" s="45">
-        <v>7510842.0080000004</v>
-      </c>
-      <c r="G18" s="45">
-        <v>4693779.1569999997</v>
-      </c>
-      <c r="H18" s="45">
-        <v>580.46400000000006</v>
-      </c>
-      <c r="I18" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="51">
-        <v>24</v>
-      </c>
-      <c r="L18" s="45">
-        <v>7510845.5630000001</v>
-      </c>
-      <c r="M18" s="45">
-        <v>4693763.2079999996</v>
-      </c>
-      <c r="N18" s="45">
-        <v>580.58399999999995</v>
-      </c>
-      <c r="O18" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q18" s="51">
-        <v>45</v>
-      </c>
-      <c r="R18" s="45">
-        <v>7510831.8420000002</v>
-      </c>
-      <c r="S18" s="45">
-        <v>4693766.5580000002</v>
-      </c>
-      <c r="T18" s="45">
-        <v>593.30399999999997</v>
-      </c>
-      <c r="U18" s="41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E19" s="51">
-        <v>53</v>
-      </c>
-      <c r="F19" s="45">
-        <v>7510850.0630000001</v>
-      </c>
-      <c r="G19" s="45">
-        <v>4693754.32</v>
-      </c>
-      <c r="H19" s="45">
-        <v>585.34500000000003</v>
-      </c>
-      <c r="I19" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="51">
-        <v>25</v>
-      </c>
-      <c r="L19" s="45">
-        <v>7510850.8569999998</v>
-      </c>
-      <c r="M19" s="45">
-        <v>4693765.8459999999</v>
-      </c>
-      <c r="N19" s="45">
-        <v>580.52800000000002</v>
-      </c>
-      <c r="O19" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="51">
-        <v>46</v>
-      </c>
-      <c r="R19" s="45">
-        <v>7510832.6900000004</v>
-      </c>
-      <c r="S19" s="45">
-        <v>4693767.4069999997</v>
-      </c>
-      <c r="T19" s="45">
-        <v>593.298</v>
-      </c>
-      <c r="U19" s="41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E20" s="51">
-        <v>300</v>
-      </c>
-      <c r="F20" s="45">
-        <v>7510830.3503999999</v>
-      </c>
-      <c r="G20" s="45">
-        <v>4693739.4398999996</v>
-      </c>
-      <c r="H20" s="45">
-        <v>581.18700000000001</v>
-      </c>
-      <c r="I20" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="51">
-        <v>30</v>
-      </c>
-      <c r="L20" s="45">
-        <v>7510843.0099999998</v>
-      </c>
-      <c r="M20" s="45">
-        <v>4693780.1459999997</v>
-      </c>
-      <c r="N20" s="45">
-        <v>580.33699999999999</v>
-      </c>
-      <c r="O20" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q20" s="51">
-        <v>67</v>
-      </c>
-      <c r="R20" s="45">
-        <v>7510835.4249999998</v>
-      </c>
-      <c r="S20" s="45">
-        <v>4693745.824</v>
-      </c>
-      <c r="T20" s="45">
-        <v>590.16700000000003</v>
-      </c>
-      <c r="U20" s="41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E21" s="51">
-        <v>5</v>
-      </c>
-      <c r="F21" s="45">
-        <v>7510828.8200000003</v>
-      </c>
-      <c r="G21" s="45">
-        <v>4693736.5530000003</v>
-      </c>
-      <c r="H21" s="45">
-        <v>581.25199999999995</v>
-      </c>
-      <c r="I21" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="51">
-        <v>31</v>
-      </c>
-      <c r="L21" s="45">
-        <v>7510837.977</v>
-      </c>
-      <c r="M21" s="45">
-        <v>4693776.977</v>
-      </c>
-      <c r="N21" s="45">
-        <v>580.41</v>
-      </c>
-      <c r="O21" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q21" s="51">
-        <v>68</v>
-      </c>
-      <c r="R21" s="45">
-        <v>7510834.5439999998</v>
-      </c>
-      <c r="S21" s="45">
-        <v>4693744.9340000004</v>
-      </c>
-      <c r="T21" s="45">
-        <v>590.14400000000001</v>
-      </c>
-      <c r="U21" s="41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E22" s="51">
-        <v>9</v>
-      </c>
-      <c r="F22" s="45">
-        <v>7510847.3049999997</v>
-      </c>
-      <c r="G22" s="45">
-        <v>4693756.4369999999</v>
-      </c>
-      <c r="H22" s="45">
-        <v>580.69899999999996</v>
-      </c>
-      <c r="I22" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="51">
-        <v>32</v>
-      </c>
-      <c r="L22" s="45">
-        <v>7510843.9029999999</v>
-      </c>
-      <c r="M22" s="45">
-        <v>4693754.3380000005</v>
-      </c>
-      <c r="N22" s="45">
-        <v>584.08900000000006</v>
-      </c>
-      <c r="O22" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q22" s="51">
-        <v>69</v>
-      </c>
-      <c r="R22" s="45">
-        <v>7510834.4929999998</v>
-      </c>
-      <c r="S22" s="45">
-        <v>4693745.0290000001</v>
-      </c>
-      <c r="T22" s="45">
-        <v>591.36199999999997</v>
-      </c>
-      <c r="U22" s="41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E23" s="51">
-        <v>16</v>
-      </c>
-      <c r="F23" s="45">
-        <v>7510838.7439999999</v>
-      </c>
-      <c r="G23" s="45">
-        <v>4693774.6440000003</v>
-      </c>
-      <c r="H23" s="45">
-        <v>580.524</v>
-      </c>
-      <c r="I23" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="51">
-        <v>63</v>
-      </c>
-      <c r="L23" s="45">
-        <v>7510823.3119999999</v>
-      </c>
-      <c r="M23" s="45">
-        <v>4693758.0619999999</v>
-      </c>
-      <c r="N23" s="45">
-        <v>584.08900000000006</v>
-      </c>
-      <c r="O23" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q23" s="51">
-        <v>47</v>
-      </c>
-      <c r="R23" s="45">
-        <v>7510843.8969999999</v>
-      </c>
-      <c r="S23" s="45">
-        <v>4693754.3430000003</v>
-      </c>
-      <c r="T23" s="45">
-        <v>593.25900000000001</v>
-      </c>
-      <c r="U23" s="41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E24" s="51">
-        <v>58</v>
-      </c>
-      <c r="F24" s="45">
-        <v>7510816.0659999996</v>
-      </c>
-      <c r="G24" s="45">
-        <v>4693753.0669999998</v>
-      </c>
-      <c r="H24" s="45">
-        <v>581.00300000000004</v>
-      </c>
-      <c r="I24" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="51">
-        <v>64</v>
-      </c>
-      <c r="L24" s="45">
-        <v>7510822.3650000002</v>
-      </c>
-      <c r="M24" s="45">
-        <v>4693757.1229999997</v>
-      </c>
-      <c r="N24" s="45">
-        <v>584.08900000000006</v>
-      </c>
-      <c r="O24" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q24" s="51">
-        <v>76</v>
-      </c>
-      <c r="R24" s="45">
-        <v>7510823.3119999999</v>
-      </c>
-      <c r="S24" s="45">
-        <v>4693758.0619999999</v>
-      </c>
-      <c r="T24" s="45">
-        <v>593.27300000000002</v>
-      </c>
-      <c r="U24" s="41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E25" s="51">
-        <v>4</v>
-      </c>
-      <c r="F25" s="45">
-        <v>7510828.2419999996</v>
-      </c>
-      <c r="G25" s="45">
-        <v>4693730.3839999996</v>
-      </c>
-      <c r="H25" s="45">
-        <v>581.38199999999995</v>
-      </c>
-      <c r="I25" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25" s="51">
-        <v>34</v>
-      </c>
-      <c r="L25" s="45">
-        <v>7510844.7369999997</v>
-      </c>
-      <c r="M25" s="45">
-        <v>4693755.2079999996</v>
-      </c>
-      <c r="N25" s="45">
-        <v>584.08900000000006</v>
-      </c>
-      <c r="O25" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q25" s="51">
-        <v>77</v>
-      </c>
-      <c r="R25" s="45">
-        <v>7510822.3890000004</v>
-      </c>
-      <c r="S25" s="45">
-        <v>4693757.1330000004</v>
-      </c>
-      <c r="T25" s="45">
-        <v>593.26400000000001</v>
-      </c>
-      <c r="U25" s="41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E26" s="51">
-        <v>6</v>
-      </c>
-      <c r="F26" s="45">
-        <v>7510835.7640000004</v>
-      </c>
-      <c r="G26" s="45">
-        <v>4693738.5750000002</v>
-      </c>
-      <c r="H26" s="45">
-        <v>581.18100000000004</v>
-      </c>
-      <c r="I26" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K26" s="51">
-        <v>35</v>
-      </c>
-      <c r="L26" s="45">
-        <v>7510831.858</v>
-      </c>
-      <c r="M26" s="45">
-        <v>4693766.5590000004</v>
-      </c>
-      <c r="N26" s="45">
-        <v>584.11599999999999</v>
-      </c>
-      <c r="O26" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q26" s="51">
-        <v>78</v>
-      </c>
-      <c r="R26" s="45">
-        <v>7510822.3650000002</v>
-      </c>
-      <c r="S26" s="45">
-        <v>4693757.1229999997</v>
-      </c>
-      <c r="T26" s="45">
-        <v>594.428</v>
-      </c>
-      <c r="U26" s="41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E27" s="51">
-        <v>7</v>
-      </c>
-      <c r="F27" s="45">
-        <v>7510835.7649999997</v>
-      </c>
-      <c r="G27" s="45">
-        <v>4693738.5750000002</v>
-      </c>
-      <c r="H27" s="45">
-        <v>581.18299999999999</v>
-      </c>
-      <c r="I27" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="K27" s="51">
-        <v>36</v>
-      </c>
-      <c r="L27" s="45">
-        <v>7510832.6960000005</v>
-      </c>
-      <c r="M27" s="45">
-        <v>4693767.4139999999</v>
-      </c>
-      <c r="N27" s="45">
-        <v>584.08900000000006</v>
-      </c>
-      <c r="O27" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q27" s="51">
-        <v>48</v>
-      </c>
-      <c r="R27" s="45">
-        <v>7510844.7369999997</v>
-      </c>
-      <c r="S27" s="45">
-        <v>4693755.2079999996</v>
-      </c>
-      <c r="T27" s="45">
-        <v>593.27200000000005</v>
-      </c>
-      <c r="U27" s="41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E28" s="51">
-        <v>8</v>
-      </c>
-      <c r="F28" s="45">
-        <v>7510849.3859999999</v>
-      </c>
-      <c r="G28" s="45">
-        <v>4693753.449</v>
-      </c>
-      <c r="H28" s="45">
-        <v>580.72500000000002</v>
-      </c>
-      <c r="I28" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="51">
-        <v>61</v>
-      </c>
-      <c r="L28" s="45">
-        <v>7510835.4249999998</v>
-      </c>
-      <c r="M28" s="45">
-        <v>4693745.824</v>
-      </c>
-      <c r="N28" s="45">
-        <v>584.08900000000006</v>
-      </c>
-      <c r="O28" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q28" s="51">
-        <v>49</v>
-      </c>
-      <c r="R28" s="45">
-        <v>7510844.7620000001</v>
-      </c>
-      <c r="S28" s="45">
-        <v>4693755.2110000001</v>
-      </c>
-      <c r="T28" s="45">
-        <v>594.38800000000003</v>
-      </c>
-      <c r="U28" s="41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E29" s="51">
-        <v>52</v>
-      </c>
-      <c r="F29" s="45">
-        <v>7510853.9239999996</v>
-      </c>
-      <c r="G29" s="45">
-        <v>4693743.9119999995</v>
-      </c>
-      <c r="H29" s="45">
-        <v>584.55100000000004</v>
-      </c>
-      <c r="I29" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="K29" s="51">
-        <v>62</v>
-      </c>
-      <c r="L29" s="45">
-        <v>7510834.4950000001</v>
-      </c>
-      <c r="M29" s="45">
-        <v>4693744.9019999998</v>
-      </c>
-      <c r="N29" s="45">
-        <v>584.08900000000006</v>
-      </c>
-      <c r="O29" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q29" s="51">
-        <v>50</v>
-      </c>
-      <c r="R29" s="45">
-        <v>7510831.8420000002</v>
-      </c>
-      <c r="S29" s="45">
-        <v>4693766.5599999996</v>
-      </c>
-      <c r="T29" s="45">
-        <v>593.30600000000004</v>
-      </c>
-      <c r="U29" s="41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E30" s="51">
-        <v>1</v>
-      </c>
-      <c r="F30" s="45">
-        <v>7510839.7960000001</v>
-      </c>
-      <c r="G30" s="45">
-        <v>4693780.8739999998</v>
-      </c>
-      <c r="H30" s="45">
-        <v>580.41399999999999</v>
-      </c>
-      <c r="I30" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="K30" s="51">
-        <v>37</v>
-      </c>
-      <c r="L30" s="45">
-        <v>7510843.8969999999</v>
-      </c>
-      <c r="M30" s="45">
-        <v>4693754.3380000005</v>
-      </c>
-      <c r="N30" s="45">
-        <v>587.15499999999997</v>
-      </c>
-      <c r="O30" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q30" s="51">
-        <v>51</v>
-      </c>
-      <c r="R30" s="45">
-        <v>7510832.6960000005</v>
-      </c>
-      <c r="S30" s="45">
-        <v>4693767.4139999999</v>
-      </c>
-      <c r="T30" s="45">
-        <v>593.298</v>
-      </c>
-      <c r="U30" s="41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E31" s="51">
-        <v>2</v>
-      </c>
-      <c r="F31" s="45">
-        <v>7510852.2230000002</v>
-      </c>
-      <c r="G31" s="45">
-        <v>4693757.7889999999</v>
-      </c>
-      <c r="H31" s="45">
-        <v>580.53899999999999</v>
-      </c>
-      <c r="I31" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="K31" s="51">
-        <v>38</v>
-      </c>
-      <c r="L31" s="45">
-        <v>7510844.733</v>
-      </c>
-      <c r="M31" s="45">
-        <v>4693755.176</v>
-      </c>
-      <c r="N31" s="45">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="O31" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q31" s="51">
-        <v>73</v>
-      </c>
-      <c r="R31" s="45">
-        <v>7510835.4249999998</v>
-      </c>
-      <c r="S31" s="45">
-        <v>4693745.824</v>
-      </c>
-      <c r="T31" s="45">
-        <v>593.25400000000002</v>
-      </c>
-      <c r="U31" s="41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E32" s="51">
-        <v>54</v>
-      </c>
-      <c r="F32" s="45">
-        <v>7510827.0769999996</v>
-      </c>
-      <c r="G32" s="45">
-        <v>4693733.3370000003</v>
-      </c>
-      <c r="H32" s="45">
-        <v>581.29300000000001</v>
-      </c>
-      <c r="I32" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="K32" s="51">
-        <v>39</v>
-      </c>
-      <c r="L32" s="45">
-        <v>7510844.7539999997</v>
-      </c>
-      <c r="M32" s="45">
-        <v>4693755.1730000004</v>
-      </c>
-      <c r="N32" s="45">
-        <v>588.27200000000005</v>
-      </c>
-      <c r="O32" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q32" s="51">
-        <v>74</v>
-      </c>
-      <c r="R32" s="45">
-        <v>7510834.5439999998</v>
-      </c>
-      <c r="S32" s="45">
-        <v>4693744.9400000004</v>
-      </c>
-      <c r="T32" s="45">
-        <v>593.24800000000005</v>
-      </c>
-      <c r="U32" s="41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="47">
-        <v>10</v>
-      </c>
-      <c r="F33" s="44">
-        <v>7510847.4340000004</v>
-      </c>
-      <c r="G33" s="44">
-        <v>4693756.4050000003</v>
-      </c>
-      <c r="H33" s="44">
-        <v>580.69799999999998</v>
-      </c>
-      <c r="I33" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33" s="47">
-        <v>40</v>
-      </c>
-      <c r="L33" s="44">
-        <v>7510831.8430000003</v>
-      </c>
-      <c r="M33" s="44">
-        <v>4693766.5710000005</v>
-      </c>
-      <c r="N33" s="44">
-        <v>587.17100000000005</v>
-      </c>
-      <c r="O33" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q33" s="51">
-        <v>75</v>
-      </c>
-      <c r="R33" s="45">
-        <v>7510834.4809999997</v>
-      </c>
-      <c r="S33" s="45">
-        <v>4693745.0439999998</v>
-      </c>
-      <c r="T33" s="45">
-        <v>594.46500000000003</v>
-      </c>
-      <c r="U33" s="41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q34" s="47">
-        <v>27</v>
-      </c>
-      <c r="R34" s="44">
-        <v>7510846.4699999997</v>
-      </c>
-      <c r="S34" s="44">
-        <v>4693774.4309999999</v>
-      </c>
-      <c r="T34" s="44">
-        <v>580.39499999999998</v>
-      </c>
-      <c r="U34" s="48" t="s">
-        <v>78</v>
+      <c r="Z42">
+        <v>7511662.5708999997</v>
+      </c>
+      <c r="AA42">
+        <v>4691974.5855999999</v>
+      </c>
+      <c r="AB42">
+        <v>622.81200000000001</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/1-Situacioni/regjistri/18-Koordinatat-e-ndërtesës743-0-Djellza-leg.xlsx
+++ b/1-Situacioni/regjistri/18-Koordinatat-e-ndërtesës743-0-Djellza-leg.xlsx
@@ -70,9 +70,6 @@
 </t>
   </si>
   <si>
-    <t>Sead Prushi</t>
-  </si>
-  <si>
     <t>Shtëpi-Ndërtesë</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>SHTYLL-ELEKTRIKE</t>
+  </si>
+  <si>
+    <t>Fitore Lipovica</t>
   </si>
 </sst>
 </file>
@@ -1105,6 +1105,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1183,8 +1185,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1945,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C14:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,112 +1962,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -2110,7 +2110,7 @@
         <v>40</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>10</v>
@@ -2133,7 +2133,7 @@
         <v>40</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>10</v>
@@ -2156,7 +2156,7 @@
         <v>40</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>10</v>
@@ -2181,7 +2181,7 @@
         <v>40</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>10</v>
@@ -2208,7 +2208,7 @@
         <v>40</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>10</v>
@@ -2235,7 +2235,7 @@
         <v>40</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>10</v>
@@ -2262,7 +2262,7 @@
         <v>40</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>10</v>
@@ -2289,7 +2289,7 @@
         <v>40</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>10</v>
@@ -2420,34 +2420,34 @@
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="38" t="s">
+      <c r="E35" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="39"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="50"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="52"/>
     </row>
     <row r="36" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="47">
-        <v>152</v>
-      </c>
-      <c r="F36" s="47"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="52"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="49">
+        <v>168</v>
+      </c>
+      <c r="F36" s="49"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="54"/>
     </row>
     <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K37" s="4"/>
@@ -2511,7 +2511,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" s="26" t="s">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="26" t="s">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>3</v>
       </c>
       <c r="U8" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="5:29" x14ac:dyDescent="0.25">
@@ -2573,7 +2573,7 @@
         <v>617.23900000000003</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="17">
         <v>41</v>
@@ -2588,7 +2588,7 @@
         <v>587.18700000000001</v>
       </c>
       <c r="U9" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y9">
         <v>100</v>
@@ -2635,7 +2635,7 @@
         <v>617.60699999999997</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="25">
         <v>65</v>
@@ -2650,7 +2650,7 @@
         <v>587.375</v>
       </c>
       <c r="U10" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y10">
         <v>101</v>
@@ -2697,7 +2697,7 @@
         <v>617.10799999999995</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="25">
         <v>66</v>
@@ -2712,7 +2712,7 @@
         <v>588.27300000000002</v>
       </c>
       <c r="U11" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y11">
         <v>102</v>
@@ -2759,7 +2759,7 @@
         <v>622.70500000000004</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="25">
         <v>42</v>
@@ -2774,7 +2774,7 @@
         <v>590.178</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y12">
         <v>103</v>
@@ -2821,7 +2821,7 @@
         <v>617.60699999999997</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="25">
         <v>70</v>
@@ -2836,7 +2836,7 @@
         <v>590.18700000000001</v>
       </c>
       <c r="U13" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y13">
         <v>105</v>
@@ -2883,7 +2883,7 @@
         <v>617.60699999999997</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="25">
         <v>71</v>
@@ -2898,7 +2898,7 @@
         <v>590.17399999999998</v>
       </c>
       <c r="U14" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y14">
         <v>106</v>
@@ -2945,7 +2945,7 @@
         <v>617.13699999999994</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="25">
         <v>72</v>
@@ -2960,7 +2960,7 @@
         <v>591.33199999999999</v>
       </c>
       <c r="U15" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y15">
         <v>107</v>
@@ -3007,7 +3007,7 @@
         <v>617.13699999999994</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="25">
         <v>43</v>
@@ -3022,7 +3022,7 @@
         <v>590.18700000000001</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y16">
         <v>108</v>
@@ -3069,7 +3069,7 @@
         <v>616.91099999999994</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q17" s="25">
         <v>44</v>
@@ -3084,7 +3084,7 @@
         <v>591.33799999999997</v>
       </c>
       <c r="U17" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y17">
         <v>109</v>
@@ -3131,7 +3131,7 @@
         <v>616.971</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="25">
         <v>45</v>
@@ -3146,7 +3146,7 @@
         <v>593.30399999999997</v>
       </c>
       <c r="U18" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y18">
         <v>110</v>
@@ -3193,7 +3193,7 @@
         <v>617.78800000000001</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="25">
         <v>46</v>
@@ -3208,7 +3208,7 @@
         <v>593.298</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y19">
         <v>111</v>
@@ -3255,7 +3255,7 @@
         <v>619.20799999999997</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="25">
         <v>67</v>
@@ -3270,7 +3270,7 @@
         <v>590.16700000000003</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y20">
         <v>112</v>
@@ -3302,7 +3302,7 @@
         <v>617.08399999999995</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21" s="25">
         <v>12</v>
@@ -3317,7 +3317,7 @@
         <v>622.81200000000001</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q21" s="25">
         <v>68</v>
@@ -3332,7 +3332,7 @@
         <v>590.14400000000001</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y21">
         <v>6</v>
@@ -3347,7 +3347,7 @@
         <v>617.08399999999995</v>
       </c>
       <c r="AC21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="5:29" x14ac:dyDescent="0.25">
@@ -3364,7 +3364,7 @@
         <v>617.09299999999996</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K22" s="25">
         <v>13</v>
@@ -3379,7 +3379,7 @@
         <v>622.78200000000004</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q22" s="25">
         <v>69</v>
@@ -3394,7 +3394,7 @@
         <v>591.36199999999997</v>
       </c>
       <c r="U22" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y22">
         <v>21</v>
@@ -3409,7 +3409,7 @@
         <v>617.09299999999996</v>
       </c>
       <c r="AC22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="5:29" x14ac:dyDescent="0.25">
@@ -3426,7 +3426,7 @@
         <v>625.62099999999998</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23" s="25">
         <v>14</v>
@@ -3441,7 +3441,7 @@
         <v>622.78399999999999</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q23" s="25">
         <v>47</v>
@@ -3456,7 +3456,7 @@
         <v>593.25900000000001</v>
       </c>
       <c r="U23" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y23">
         <v>17</v>
@@ -3471,7 +3471,7 @@
         <v>625.62099999999998</v>
       </c>
       <c r="AC23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="5:29" x14ac:dyDescent="0.25">
@@ -3488,7 +3488,7 @@
         <v>625.62099999999998</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24" s="25">
         <v>15</v>
@@ -3503,7 +3503,7 @@
         <v>622.81200000000001</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q24" s="25">
         <v>76</v>
@@ -3518,7 +3518,7 @@
         <v>593.27300000000002</v>
       </c>
       <c r="U24" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y24">
         <v>18</v>
@@ -3533,7 +3533,7 @@
         <v>625.62099999999998</v>
       </c>
       <c r="AC24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="5:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3550,7 +3550,7 @@
         <v>617.17499999999995</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K25" s="21">
         <v>16</v>
@@ -3565,7 +3565,7 @@
         <v>622.81200000000001</v>
       </c>
       <c r="O25" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q25" s="25">
         <v>77</v>
@@ -3580,7 +3580,7 @@
         <v>593.26400000000001</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y25">
         <v>7</v>
@@ -3595,20 +3595,20 @@
         <v>617.17499999999995</v>
       </c>
       <c r="AC25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E26" s="53"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="53"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="27"/>
       <c r="Q26" s="25">
         <v>78</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>594.428</v>
       </c>
       <c r="U26" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y26">
         <v>1</v>
@@ -3637,20 +3637,20 @@
         <v>617.23900000000003</v>
       </c>
       <c r="AC26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E27" s="53"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="53"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="27"/>
       <c r="Q27" s="25">
         <v>48</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>593.27200000000005</v>
       </c>
       <c r="U27" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y27">
         <v>4</v>
@@ -3679,20 +3679,20 @@
         <v>617.60699999999997</v>
       </c>
       <c r="AC27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E28" s="53"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="53"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="27"/>
       <c r="Q28" s="25">
         <v>49</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>594.38800000000003</v>
       </c>
       <c r="U28" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y28">
         <v>5</v>
@@ -3721,20 +3721,20 @@
         <v>617.10799999999995</v>
       </c>
       <c r="AC28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="53"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="27"/>
       <c r="Q29" s="25">
         <v>50</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>593.30600000000004</v>
       </c>
       <c r="U29" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y29">
         <v>10</v>
@@ -3763,20 +3763,20 @@
         <v>622.70500000000004</v>
       </c>
       <c r="AC29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="53"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="27"/>
       <c r="Q30" s="25">
         <v>51</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>593.298</v>
       </c>
       <c r="U30" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y30">
         <v>302</v>
@@ -3805,20 +3805,20 @@
         <v>617.60699999999997</v>
       </c>
       <c r="AC30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E31" s="53"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="53"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="27"/>
       <c r="Q31" s="25">
         <v>73</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>593.25400000000002</v>
       </c>
       <c r="U31" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y31">
         <v>303</v>
@@ -3847,20 +3847,20 @@
         <v>617.60699999999997</v>
       </c>
       <c r="AC31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="53"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="27"/>
       <c r="Q32" s="25">
         <v>74</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>593.24800000000005</v>
       </c>
       <c r="U32" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y32">
         <v>2</v>
@@ -3889,20 +3889,20 @@
         <v>617.13699999999994</v>
       </c>
       <c r="AC32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="53"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="27"/>
       <c r="Q33" s="25">
         <v>75</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>594.46500000000003</v>
       </c>
       <c r="U33" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y33">
         <v>3</v>
@@ -3931,7 +3931,7 @@
         <v>617.13699999999994</v>
       </c>
       <c r="AC33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="5:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3948,7 +3948,7 @@
         <v>580.39499999999998</v>
       </c>
       <c r="U34" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y34">
         <v>19</v>
@@ -3963,7 +3963,7 @@
         <v>616.91099999999994</v>
       </c>
       <c r="AC34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="5:29" x14ac:dyDescent="0.25">
@@ -3980,7 +3980,7 @@
         <v>616.971</v>
       </c>
       <c r="AC35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="5:29" x14ac:dyDescent="0.25">
@@ -3997,7 +3997,7 @@
         <v>617.78800000000001</v>
       </c>
       <c r="AC36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="5:29" x14ac:dyDescent="0.25">
@@ -4014,7 +4014,7 @@
         <v>619.20799999999997</v>
       </c>
       <c r="AC37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="5:29" x14ac:dyDescent="0.25">
@@ -4031,7 +4031,7 @@
         <v>622.81200000000001</v>
       </c>
       <c r="AC38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="5:29" x14ac:dyDescent="0.25">
@@ -4048,7 +4048,7 @@
         <v>622.78200000000004</v>
       </c>
       <c r="AC39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="5:29" x14ac:dyDescent="0.25">
@@ -4065,7 +4065,7 @@
         <v>622.78399999999999</v>
       </c>
       <c r="AC40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="5:29" x14ac:dyDescent="0.25">
@@ -4082,7 +4082,7 @@
         <v>622.81200000000001</v>
       </c>
       <c r="AC41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="5:29" x14ac:dyDescent="0.25">
@@ -4099,7 +4099,7 @@
         <v>622.81200000000001</v>
       </c>
       <c r="AC42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/1-Situacioni/regjistri/18-Koordinatat-e-ndërtesës743-0-Djellza-leg.xlsx
+++ b/1-Situacioni/regjistri/18-Koordinatat-e-ndërtesës743-0-Djellza-leg.xlsx
@@ -187,7 +187,7 @@
     <t>SHTYLL-ELEKTRIKE</t>
   </si>
   <si>
-    <t>Fitore Lipovica</t>
+    <t>Liridon Sejdiu</t>
   </si>
 </sst>
 </file>
@@ -1546,7 +1546,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>00743-5</a:t>
+            <a:t>00743-14</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="1" smtClean="0">
             <a:solidFill>
@@ -1945,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C14:I22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2440,7 +2440,7 @@
       <c r="C36" s="47"/>
       <c r="D36" s="48"/>
       <c r="E36" s="49">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="F36" s="49"/>
       <c r="G36" s="50"/>
